--- a/Excel & CSV Sheets/Comparing_Model_Runs - With RatioTests.xlsx
+++ b/Excel & CSV Sheets/Comparing_Model_Runs - With RatioTests.xlsx
@@ -5,12 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Comparing Model Runs" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Split Tests" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Forecast_Performance" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Forecast_1-1-2019" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Forecast_2-4-2018" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Forecast_3-12-2017" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Forecast_3-17-2019" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Forecast_4-12-2019" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Forecast_4-22-2018" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Forecast_5-11-2019" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Forecast_5-16-2017" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Forecast_7-9-2017" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Forecast_8-16-2018" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="88">
   <si>
     <t xml:space="preserve">Cut Grid Fix</t>
   </si>
@@ -215,6 +224,9 @@
     <t xml:space="preserve">NOTES</t>
   </si>
   <si>
+    <t xml:space="preserve">Accidents</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cut GF</t>
   </si>
   <si>
@@ -263,10 +275,7 @@
     <t xml:space="preserve">Temporal 75/25</t>
   </si>
   <si>
-    <t xml:space="preserve">As predicted, 50/50 grossly over estimated the total number of accidents, while 75/25 models predicted much more believable numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Accidents = 85</t>
+    <t xml:space="preserve">Actual Accidents</t>
   </si>
   <si>
     <t xml:space="preserve">Column heading meaning:</t>
@@ -275,10 +284,19 @@
     <t xml:space="preserve">% Pred – Percent of Actual Accidents Predicted</t>
   </si>
   <si>
+    <t xml:space="preserve">% Correct – How many from the sum accidents column were actually right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As predicted, 50/50 grossly over estimated the total number of accidents, while 75/25 models predicted much more believable numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Accidents </t>
+  </si>
+  <si>
     <t xml:space="preserve">This may be due to the model expecting an even split between accidents and non-accidents. </t>
   </si>
   <si>
-    <t xml:space="preserve">% Correct – How many from the sum accidents column were actually right</t>
+    <t xml:space="preserve">(Close to 1 = good)</t>
   </si>
 </sst>
 </file>
@@ -291,7 +309,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -334,6 +352,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -397,7 +420,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -502,27 +525,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -605,7 +640,7 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X8" activeCellId="0" sqref="X8"/>
     </sheetView>
   </sheetViews>
@@ -3437,6 +3472,2622 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="12.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="n">
+        <v>97.84</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>389</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <f aca="false">(F2/M2)*100</f>
+        <v>30</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <f aca="false">(F2/E2)*100</f>
+        <v>3.8560411311054</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">(I2/M2)*100</f>
+        <v>42</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <f aca="false">(I2/E2)*100</f>
+        <v>5.39845758354756</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>451</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <f aca="false">(F3/M3)*100</f>
+        <v>38</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <f aca="false">(F3/E3)*100</f>
+        <v>4.21286031042129</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" s="28" t="n">
+        <f aca="false">(I3/M3)*100</f>
+        <v>50</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <f aca="false">(I3/E3)*100</f>
+        <v>5.54323725055432</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>97.21</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <f aca="false">(F4/M4)*100</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <f aca="false">(F4/E4)*100</f>
+        <v>9.375</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <f aca="false">(I4/M4)*100</f>
+        <v>10</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <f aca="false">(I4/E4)*100</f>
+        <v>15.625</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>99.91</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>106</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <f aca="false">(F5/M5)*100</f>
+        <v>20</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <f aca="false">(F5/E5)*100</f>
+        <v>9.43396226415094</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <f aca="false">(I5/M5)*100</f>
+        <v>26</v>
+      </c>
+      <c r="K5" s="28" t="n">
+        <f aca="false">(I5/E5)*100</f>
+        <v>12.2641509433962</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="26" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <f aca="false">(F6/M6)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="29" t="e">
+        <f aca="false">(F6/E6)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <f aca="false">(I6/M6)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="29" t="e">
+        <f aca="false">(I6/E6)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>99.55</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <f aca="false">(F7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <f aca="false">(F7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28" t="n">
+        <f aca="false">(I7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <f aca="false">(I7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <f aca="false">(F8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="e">
+        <f aca="false">(F8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29" t="n">
+        <f aca="false">(I8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="29" t="e">
+        <f aca="false">(I8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <f aca="false">(F9/M9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="28" t="e">
+        <f aca="false">(F9/E9)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <f aca="false">(I9/M9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="e">
+        <f aca="false">(I9/E9)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <f aca="false">(F10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="e">
+        <f aca="false">(F10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <f aca="false">(I10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29" t="e">
+        <f aca="false">(I10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <f aca="false">(F11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="e">
+        <f aca="false">(F11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="n">
+        <f aca="false">(I11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28" t="e">
+        <f aca="false">(I11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29" t="n">
+        <f aca="false">(F12/M12)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="e">
+        <f aca="false">(F12/E12)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29" t="n">
+        <f aca="false">(I12/M12)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="29" t="e">
+        <f aca="false">(I12/E12)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <f aca="false">(F13/M13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="28" t="e">
+        <f aca="false">(F13/E13)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <f aca="false">(I13/M13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="28" t="e">
+        <f aca="false">(I13/E13)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>91.98</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>246</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <f aca="false">(F14/M14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <f aca="false">(F14/E14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" s="29" t="n">
+        <f aca="false">(I14/M14)*100</f>
+        <v>4</v>
+      </c>
+      <c r="K14" s="29" t="n">
+        <f aca="false">(I14/E14)*100</f>
+        <v>0.813008130081301</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>57</v>
+      </c>
+      <c r="D15" s="27" t="n">
+        <v>99.54</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>5789</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>74</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <f aca="false">(F15/M15)*100</f>
+        <v>148</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <f aca="false">(F15/E15)*100</f>
+        <v>1.27828640525134</v>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>89</v>
+      </c>
+      <c r="J15" s="28" t="n">
+        <f aca="false">(I15/M15)*100</f>
+        <v>178</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <f aca="false">(I15/E15)*100</f>
+        <v>1.53739851442391</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>94.52</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>188</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" s="29" t="n">
+        <f aca="false">(F16/M16)*100</f>
+        <v>28</v>
+      </c>
+      <c r="H16" s="29" t="n">
+        <f aca="false">(F16/E16)*100</f>
+        <v>7.4468085106383</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="J16" s="29" t="n">
+        <f aca="false">(I16/M16)*100</f>
+        <v>38</v>
+      </c>
+      <c r="K16" s="29" t="n">
+        <f aca="false">(I16/E16)*100</f>
+        <v>10.1063829787234</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="n">
+        <f aca="false">(F17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="e">
+        <f aca="false">(F17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="n">
+        <f aca="false">(I17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="e">
+        <f aca="false">(I17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <f aca="false">(F18/M18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="e">
+        <f aca="false">(F18/E18)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29" t="n">
+        <f aca="false">(I18/M18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="29" t="e">
+        <f aca="false">(I18/E18)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D19" s="27" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28" t="n">
+        <f aca="false">(F19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="e">
+        <f aca="false">(F19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28" t="n">
+        <f aca="false">(I19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="28" t="e">
+        <f aca="false">(I19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="12.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D2" s="26" t="n">
+        <v>97.84</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>374</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <f aca="false">F2/M2*100</f>
+        <v>28</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <f aca="false">(F2/E2)*100</f>
+        <v>1.8716577540107</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">(I2/M2)*100</f>
+        <v>32</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <f aca="false">(I2/E2)*100</f>
+        <v>2.13903743315508</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>610</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="18" t="n">
+        <f aca="false">F3/M3*100</f>
+        <v>48</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <f aca="false">(F3/E3)*100</f>
+        <v>1.9672131147541</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="28" t="n">
+        <f aca="false">(I3/M3)*100</f>
+        <v>40</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <f aca="false">(I3/E3)*100</f>
+        <v>1.63934426229508</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>401</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <f aca="false">F4/M4*100</f>
+        <v>24</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <f aca="false">(F4/E4)*100</f>
+        <v>1.49625935162095</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <f aca="false">(I4/M4)*100</f>
+        <v>16</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <f aca="false">(I4/E4)*100</f>
+        <v>0.997506234413965</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>104</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <f aca="false">F5/M5*100</f>
+        <v>12</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <f aca="false">(F5/E5)*100</f>
+        <v>2.88461538461538</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <f aca="false">(I5/M5)*100</f>
+        <v>12</v>
+      </c>
+      <c r="K5" s="28" t="n">
+        <f aca="false">(I5/E5)*100</f>
+        <v>2.88461538461538</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>493</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <f aca="false">F6/M6*100</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="29" t="n">
+        <f aca="false">(F6/E6)*100</f>
+        <v>1.21703853955375</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <f aca="false">(I6/M6)*100</f>
+        <v>16</v>
+      </c>
+      <c r="K6" s="29" t="n">
+        <f aca="false">(I6/E6)*100</f>
+        <v>0.811359026369168</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>99.07</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <f aca="false">F7/M7*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <f aca="false">(F7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28" t="n">
+        <f aca="false">(I7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <f aca="false">(I7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <f aca="false">F8/M8*100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="e">
+        <f aca="false">(F8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29" t="n">
+        <f aca="false">(I8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="29" t="e">
+        <f aca="false">(I8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>99.84</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>493</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <f aca="false">F9/M9*100</f>
+        <v>24</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <f aca="false">(F9/E9)*100</f>
+        <v>1.21703853955375</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <f aca="false">(I9/M9)*100</f>
+        <v>16</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <f aca="false">(I9/E9)*100</f>
+        <v>0.811359026369168</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>94.43</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>449</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <f aca="false">F10/M10*100</f>
+        <v>24</v>
+      </c>
+      <c r="H10" s="29" t="n">
+        <f aca="false">(F10/E10)*100</f>
+        <v>1.33630289532294</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <f aca="false">(I10/M10)*100</f>
+        <v>16</v>
+      </c>
+      <c r="K10" s="29" t="n">
+        <f aca="false">(I10/E10)*100</f>
+        <v>0.89086859688196</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18" t="n">
+        <f aca="false">F11/M11*100</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="e">
+        <f aca="false">(F11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="n">
+        <f aca="false">(I11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28" t="e">
+        <f aca="false">(I11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>493</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <f aca="false">F12/M12*100</f>
+        <v>24</v>
+      </c>
+      <c r="H12" s="29" t="n">
+        <f aca="false">(F12/E12)*100</f>
+        <v>1.21703853955375</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" s="29" t="n">
+        <f aca="false">(I12/M12)*100</f>
+        <v>16</v>
+      </c>
+      <c r="K12" s="29" t="n">
+        <f aca="false">(I12/E12)*100</f>
+        <v>0.811359026369168</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>93.69</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>493</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="18" t="n">
+        <f aca="false">F13/M13*100</f>
+        <v>24</v>
+      </c>
+      <c r="H13" s="28" t="n">
+        <f aca="false">(F13/E13)*100</f>
+        <v>1.21703853955375</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <f aca="false">(I13/M13)*100</f>
+        <v>16</v>
+      </c>
+      <c r="K13" s="28" t="n">
+        <f aca="false">(I13/E13)*100</f>
+        <v>0.811359026369168</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>92.13</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>188</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <f aca="false">F14/M14*100</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <f aca="false">(F14/E14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29" t="n">
+        <f aca="false">(I14/M14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="29" t="n">
+        <f aca="false">(I14/E14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>64.23</v>
+      </c>
+      <c r="D15" s="27" t="n">
+        <v>99.58</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>5789</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>46</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <f aca="false">F15/M15*100</f>
+        <v>184</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <f aca="false">(F15/E15)*100</f>
+        <v>0.794610468129211</v>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" s="28" t="n">
+        <f aca="false">(I15/M15)*100</f>
+        <v>180</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <f aca="false">(I15/E15)*100</f>
+        <v>0.777336327517706</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>99.22</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>558</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <f aca="false">F16/M16*100</f>
+        <v>36</v>
+      </c>
+      <c r="H16" s="29" t="n">
+        <f aca="false">(F16/E16)*100</f>
+        <v>1.61290322580645</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" s="29" t="n">
+        <f aca="false">(I16/M16)*100</f>
+        <v>28</v>
+      </c>
+      <c r="K16" s="29" t="n">
+        <f aca="false">(I16/E16)*100</f>
+        <v>1.25448028673835</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18" t="n">
+        <f aca="false">F17/M17*100</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="e">
+        <f aca="false">(F17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="n">
+        <f aca="false">(I17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="e">
+        <f aca="false">(I17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>98.29</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>493</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <f aca="false">F18/M18*100</f>
+        <v>24</v>
+      </c>
+      <c r="H18" s="29" t="n">
+        <f aca="false">(F18/E18)*100</f>
+        <v>1.21703853955375</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" s="29" t="n">
+        <f aca="false">(I18/M18)*100</f>
+        <v>16</v>
+      </c>
+      <c r="K18" s="29" t="n">
+        <f aca="false">(I18/E18)*100</f>
+        <v>0.811359026369168</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D19" s="27" t="n">
+        <v>99.84</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>477</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="18" t="n">
+        <f aca="false">F19/M19*100</f>
+        <v>24</v>
+      </c>
+      <c r="H19" s="28" t="n">
+        <f aca="false">(F19/E19)*100</f>
+        <v>1.25786163522013</v>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" s="28" t="n">
+        <f aca="false">(I19/M19)*100</f>
+        <v>16</v>
+      </c>
+      <c r="K19" s="28" t="n">
+        <f aca="false">(I19/E19)*100</f>
+        <v>0.838574423480084</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="12.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D2" s="26" t="n">
+        <v>97.84</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>389</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <f aca="false">(F2/M2)*100</f>
+        <v>65.3333333333333</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <f aca="false">(F2/E2)*100</f>
+        <v>12.5964010282776</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">(I2/M2)*100</f>
+        <v>70.6666666666667</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <f aca="false">(I2/E2)*100</f>
+        <v>13.6246786632391</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>443</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <f aca="false">(F3/M3)*100</f>
+        <v>57.3333333333333</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <f aca="false">(F3/E3)*100</f>
+        <v>9.70654627539503</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>55</v>
+      </c>
+      <c r="J3" s="28" t="n">
+        <f aca="false">(I3/M3)*100</f>
+        <v>73.3333333333333</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <f aca="false">(I3/E3)*100</f>
+        <v>12.4153498871332</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>97.49</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <f aca="false">(F4/M4)*100</f>
+        <v>5.33333333333333</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <f aca="false">(F4/E4)*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <f aca="false">(I4/M4)*100</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <f aca="false">(I4/E4)*100</f>
+        <v>18.75</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>87</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <f aca="false">(F5/M5)*100</f>
+        <v>25.3333333333333</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <f aca="false">(F5/E5)*100</f>
+        <v>21.8390804597701</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <f aca="false">(I5/M5)*100</f>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K5" s="28" t="n">
+        <f aca="false">(I5/E5)*100</f>
+        <v>28.735632183908</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="26" t="n">
+        <v>75.03</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <f aca="false">(F6/M6)*100</f>
+        <v>1.33333333333333</v>
+      </c>
+      <c r="H6" s="29" t="n">
+        <f aca="false">(F6/E6)*100</f>
+        <v>100</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <f aca="false">(I6/M6)*100</f>
+        <v>1.33333333333333</v>
+      </c>
+      <c r="K6" s="29" t="n">
+        <f aca="false">(I6/E6)*100</f>
+        <v>100</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>99.07</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <f aca="false">(F7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <f aca="false">(F7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="28" t="n">
+        <f aca="false">(I7/M7)*100</f>
+        <v>1.33333333333333</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <f aca="false">(I7/E7)*100</f>
+        <v>25</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <f aca="false">(F8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="e">
+        <f aca="false">(F8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29" t="n">
+        <f aca="false">(I8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="29" t="e">
+        <f aca="false">(I8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <f aca="false">(F9/M9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="28" t="e">
+        <f aca="false">(F9/E9)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <f aca="false">(I9/M9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="e">
+        <f aca="false">(I9/E9)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <f aca="false">(F10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="e">
+        <f aca="false">(F10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <f aca="false">(I10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29" t="e">
+        <f aca="false">(I10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <f aca="false">(F11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="e">
+        <f aca="false">(F11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="n">
+        <f aca="false">(I11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28" t="e">
+        <f aca="false">(I11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29" t="n">
+        <f aca="false">(F12/M12)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="e">
+        <f aca="false">(F12/E12)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29" t="n">
+        <f aca="false">(I12/M12)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="29" t="e">
+        <f aca="false">(I12/E12)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <f aca="false">(F13/M13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="28" t="e">
+        <f aca="false">(F13/E13)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <f aca="false">(I13/M13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="28" t="e">
+        <f aca="false">(I13/E13)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>91.98</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>231</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <f aca="false">(F14/M14)*100</f>
+        <v>20</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <f aca="false">(F14/E14)*100</f>
+        <v>6.49350649350649</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J14" s="29" t="n">
+        <f aca="false">(I14/M14)*100</f>
+        <v>22.6666666666667</v>
+      </c>
+      <c r="K14" s="29" t="n">
+        <f aca="false">(I14/E14)*100</f>
+        <v>7.35930735930736</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>64.23</v>
+      </c>
+      <c r="D15" s="27" t="n">
+        <v>99.54</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>5789</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>120</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <f aca="false">(F15/M15)*100</f>
+        <v>160</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <f aca="false">(F15/E15)*100</f>
+        <v>2.07289687338055</v>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>137</v>
+      </c>
+      <c r="J15" s="28" t="n">
+        <f aca="false">(I15/M15)*100</f>
+        <v>182.666666666667</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <f aca="false">(I15/E15)*100</f>
+        <v>2.36655726377613</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>94.52</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" s="29" t="n">
+        <f aca="false">(F16/M16)*100</f>
+        <v>16</v>
+      </c>
+      <c r="H16" s="29" t="n">
+        <f aca="false">(F16/E16)*100</f>
+        <v>6.81818181818182</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="J16" s="29" t="n">
+        <f aca="false">(I16/M16)*100</f>
+        <v>24</v>
+      </c>
+      <c r="K16" s="29" t="n">
+        <f aca="false">(I16/E16)*100</f>
+        <v>10.2272727272727</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="n">
+        <f aca="false">(F17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="e">
+        <f aca="false">(F17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="n">
+        <f aca="false">(I17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="e">
+        <f aca="false">(I17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <f aca="false">(F18/M18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="e">
+        <f aca="false">(F18/E18)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29" t="n">
+        <f aca="false">(I18/M18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="29" t="e">
+        <f aca="false">(I18/E18)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D19" s="27" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28" t="n">
+        <f aca="false">(F19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="e">
+        <f aca="false">(F19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28" t="n">
+        <f aca="false">(I19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="28" t="e">
+        <f aca="false">(I19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -3444,7 +6095,7 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P26" activeCellId="0" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -4797,29 +7448,901 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="9.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="13.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D2" s="26" t="n">
+        <v>97.84</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1226</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <f aca="false">(F2/M2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <f aca="false">(F2/E2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">(I2/M2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <f aca="false">(I2/E2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>388</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <f aca="false">(F3/M3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <f aca="false">(F3/E3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28" t="n">
+        <f aca="false">(I3/M3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <f aca="false">(I3/E3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>317</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <f aca="false">(F4/M4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <f aca="false">(F4/E4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <f aca="false">(I4/M4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <f aca="false">(I4/E4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>82</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <f aca="false">(F5/M5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <f aca="false">(F5/E5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <f aca="false">(I5/M5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="28" t="n">
+        <f aca="false">(I5/E5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>635</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <f aca="false">(F6/M6)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="29" t="n">
+        <f aca="false">(F6/E6)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <f aca="false">(I6/M6)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="29" t="n">
+        <f aca="false">(I6/E6)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>99.07</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <f aca="false">(F7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <f aca="false">(F7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28" t="n">
+        <f aca="false">(I7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <f aca="false">(I7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <f aca="false">(F8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="e">
+        <f aca="false">(F8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29" t="n">
+        <f aca="false">(I8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="29" t="e">
+        <f aca="false">(I8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>99.84</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>722</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <f aca="false">(F9/M9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <f aca="false">(F9/E9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <f aca="false">(I9/M9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <f aca="false">(I9/E9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <f aca="false">(F10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="e">
+        <f aca="false">(F10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <f aca="false">(I10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29" t="e">
+        <f aca="false">(I10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <f aca="false">(F11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="e">
+        <f aca="false">(F11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="n">
+        <f aca="false">(I11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28" t="e">
+        <f aca="false">(I11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>658</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29" t="n">
+        <f aca="false">(F12/M12)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="n">
+        <f aca="false">(F12/E12)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29" t="n">
+        <f aca="false">(I12/M12)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="29" t="n">
+        <f aca="false">(I12/E12)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>93.67</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>532</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <f aca="false">(F13/M13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="28" t="n">
+        <f aca="false">(F13/E13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <f aca="false">(I13/M13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="28" t="n">
+        <f aca="false">(I13/E13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>92.13</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>218</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <f aca="false">(F14/M14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <f aca="false">(F14/E14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29" t="n">
+        <f aca="false">(I14/M14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="29" t="n">
+        <f aca="false">(I14/E14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="D15" s="27" t="n">
+        <v>99.58</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>5159</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <f aca="false">(F15/M15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <f aca="false">(F15/E15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28" t="n">
+        <f aca="false">(I15/M15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <f aca="false">(I15/E15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>92.75</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29" t="n">
+        <f aca="false">(F16/M16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="n">
+        <f aca="false">(F16/E16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29" t="n">
+        <f aca="false">(I16/M16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="29" t="n">
+        <f aca="false">(I16/E16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="n">
+        <f aca="false">(F17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="e">
+        <f aca="false">(F17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="n">
+        <f aca="false">(I17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="e">
+        <f aca="false">(I17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>98.29</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>607</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <f aca="false">(F18/M18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="n">
+        <f aca="false">(F18/E18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29" t="n">
+        <f aca="false">(I18/M18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="29" t="n">
+        <f aca="false">(I18/E18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D19" s="27" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28" t="n">
+        <f aca="false">(F19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="n">
+        <f aca="false">(F19/E19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28" t="n">
+        <f aca="false">(I19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="28" t="n">
+        <f aca="false">(I19/E19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="12.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12"/>
       <c r="B1" s="12" t="s">
         <v>52</v>
@@ -4836,76 +8359,82 @@
       <c r="F1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="24" t="s">
         <v>58</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
+      <c r="M1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="27" t="n">
+    </row>
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D2" s="28" t="n">
+      <c r="C2" s="26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D2" s="26" t="n">
         <v>97.84</v>
       </c>
-      <c r="E2" s="27" t="n">
-        <v>361</v>
-      </c>
-      <c r="F2" s="27" t="n">
-        <v>9</v>
-      </c>
-      <c r="G2" s="29" t="n">
-        <f aca="false">F2/85*100</f>
-        <v>10.5882352941176</v>
-      </c>
-      <c r="H2" s="29" t="n">
-        <f aca="false">F2/E2</f>
-        <v>0.0249307479224377</v>
-      </c>
-      <c r="I2" s="27" t="n">
-        <v>23</v>
-      </c>
-      <c r="J2" s="29" t="n">
-        <f aca="false">I2/85*100</f>
-        <v>27.0588235294118</v>
-      </c>
-      <c r="K2" s="29" t="n">
-        <f aca="false">I2/E2</f>
-        <v>0.0637119113573407</v>
-      </c>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="3" t="n">
+        <v>463</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <f aca="false">(F2/M2)*100</f>
+        <v>40.625</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <f aca="false">(F2/E2)*100</f>
+        <v>2.80777537796976</v>
+      </c>
+      <c r="I2" s="30" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">(I2/M2)*100</f>
+        <v>46.875</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <f aca="false">(I2/E2)*100</f>
+        <v>3.23974082073434</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="31" t="n">
+      <c r="C3" s="27" t="n">
         <v>3.94</v>
       </c>
-      <c r="D3" s="31" t="n">
+      <c r="D3" s="27" t="n">
         <v>99.34</v>
       </c>
       <c r="E3" s="18" t="n">
@@ -4914,552 +8443,601 @@
       <c r="F3" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="G3" s="20" t="n">
-        <f aca="false">F3/85*100</f>
-        <v>10.5882352941176</v>
-      </c>
-      <c r="H3" s="20" t="n">
-        <f aca="false">F3/E3</f>
-        <v>0.0216346153846154</v>
+      <c r="G3" s="28" t="n">
+        <f aca="false">(F3/M3)*100</f>
+        <v>28.125</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <f aca="false">(F3/E3)*100</f>
+        <v>2.16346153846154</v>
       </c>
       <c r="I3" s="18" t="n">
-        <v>28</v>
-      </c>
-      <c r="J3" s="20" t="n">
-        <f aca="false">I3/85*100</f>
-        <v>32.9411764705882</v>
-      </c>
-      <c r="K3" s="20" t="n">
-        <f aca="false">I3/E3</f>
-        <v>0.0673076923076923</v>
+        <v>9</v>
+      </c>
+      <c r="J3" s="28" t="n">
+        <f aca="false">(I3/M3)*100</f>
+        <v>28.125</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <f aca="false">(I3/E3)*100</f>
+        <v>2.16346153846154</v>
       </c>
       <c r="L3" s="18"/>
-    </row>
-    <row r="4" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="27" t="n">
+      <c r="M3" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="26" t="n">
         <v>0.12</v>
       </c>
-      <c r="D4" s="28" t="n">
-        <v>97.57</v>
-      </c>
-      <c r="E4" s="27" t="n">
+      <c r="D4" s="26" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <f aca="false">(F4/M4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <f aca="false">(F4/E4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <f aca="false">(I4/M4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <f aca="false">(I4/E4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="F4" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="29" t="n">
-        <f aca="false">F4/85*100</f>
-        <v>5.88235294117647</v>
-      </c>
-      <c r="H4" s="29" t="n">
-        <f aca="false">F4/E4</f>
-        <v>0.15625</v>
-      </c>
-      <c r="I4" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="29" t="n">
-        <f aca="false">I4/85*100</f>
-        <v>7.05882352941176</v>
-      </c>
-      <c r="K4" s="29" t="n">
-        <f aca="false">I4/E4</f>
-        <v>0.1875</v>
-      </c>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="31" t="n">
+      <c r="C5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="n">
         <v>99.87</v>
       </c>
       <c r="E5" s="18" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F5" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="20" t="n">
-        <f aca="false">F5/85*100</f>
-        <v>5.88235294117647</v>
-      </c>
-      <c r="H5" s="20" t="n">
-        <f aca="false">F5/E5</f>
-        <v>0.0649350649350649</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <f aca="false">(F5/M5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <f aca="false">(F5/E5)*100</f>
+        <v>0</v>
       </c>
       <c r="I5" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="20" t="n">
-        <f aca="false">I5/85*100</f>
-        <v>11.7647058823529</v>
-      </c>
-      <c r="K5" s="20" t="n">
-        <f aca="false">I5/E5</f>
-        <v>0.12987012987013</v>
+        <v>0</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <f aca="false">(I5/M5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="28" t="n">
+        <f aca="false">(I5/E5)*100</f>
+        <v>0</v>
       </c>
       <c r="L5" s="18"/>
-    </row>
-    <row r="6" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="27" t="n">
+      <c r="M5" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="n">
-        <v>0.148</v>
-      </c>
-      <c r="D6" s="28" t="n">
+      <c r="C6" s="26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="E6" s="27" t="n">
-        <v>506</v>
-      </c>
-      <c r="F6" s="27" t="n">
-        <v>34</v>
+      <c r="E6" s="3" t="n">
+        <v>861</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="G6" s="29" t="n">
-        <f aca="false">F6/85*100</f>
-        <v>40</v>
+        <f aca="false">(F6/M6)*100</f>
+        <v>21.875</v>
       </c>
       <c r="H6" s="29" t="n">
-        <f aca="false">F6/E6</f>
-        <v>0.0671936758893281</v>
-      </c>
-      <c r="I6" s="27" t="n">
-        <v>48</v>
+        <f aca="false">(F6/E6)*100</f>
+        <v>0.813008130081301</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="J6" s="29" t="n">
-        <f aca="false">I6/85*100</f>
-        <v>56.4705882352941</v>
+        <f aca="false">(I6/M6)*100</f>
+        <v>50</v>
       </c>
       <c r="K6" s="29" t="n">
-        <f aca="false">I6/E6</f>
-        <v>0.0948616600790514</v>
-      </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">(I6/E6)*100</f>
+        <v>1.85830429732869</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="n">
+      <c r="C7" s="27" t="n">
         <v>0.51</v>
       </c>
-      <c r="D7" s="31" t="n">
-        <v>99.07</v>
+      <c r="D7" s="27" t="n">
+        <v>99.81</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="20" t="n">
-        <f aca="false">F7/85*100</f>
-        <v>2.35294117647059</v>
-      </c>
-      <c r="H7" s="20" t="n">
-        <f aca="false">F7/E7</f>
-        <v>0.333333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <f aca="false">(F7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <f aca="false">(F7/E7)*100</f>
+        <v>0</v>
       </c>
       <c r="I7" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="20" t="n">
-        <f aca="false">I7/85*100</f>
-        <v>2.35294117647059</v>
-      </c>
-      <c r="K7" s="20" t="n">
-        <f aca="false">I7/E7</f>
-        <v>0.333333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="J7" s="28" t="n">
+        <f aca="false">(I7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <f aca="false">(I7/E7)*100</f>
+        <v>0</v>
       </c>
       <c r="L7" s="18"/>
-    </row>
-    <row r="8" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="27" t="n">
+      <c r="M7" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="28" t="n">
-        <v>34.97</v>
-      </c>
-      <c r="E8" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27" t="n">
+      <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>61.71</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="29" t="n">
-        <f aca="false">F8/85*100</f>
+        <f aca="false">(F8/M8)*100</f>
         <v>0</v>
       </c>
       <c r="H8" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27" t="n">
+        <f aca="false">(F8/E8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="29" t="n">
-        <f aca="false">I8/85*100</f>
+        <f aca="false">(I8/M8)*100</f>
         <v>0</v>
       </c>
       <c r="K8" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">(I8/E8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D9" s="31" t="n">
+      <c r="C9" s="27" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D9" s="27" t="n">
         <v>99.84</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>662</v>
+        <v>944</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>35</v>
-      </c>
-      <c r="G9" s="20" t="n">
-        <f aca="false">F9/85*100</f>
-        <v>41.1764705882353</v>
-      </c>
-      <c r="H9" s="20" t="n">
-        <f aca="false">F9/E9</f>
-        <v>0.0528700906344411</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <f aca="false">(F9/M9)*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <f aca="false">(F9/E9)*100</f>
+        <v>1.27118644067797</v>
       </c>
       <c r="I9" s="18" t="n">
-        <v>53</v>
-      </c>
-      <c r="J9" s="20" t="n">
-        <f aca="false">I9/85*100</f>
-        <v>62.3529411764706</v>
-      </c>
-      <c r="K9" s="20" t="n">
-        <f aca="false">I9/E9</f>
-        <v>0.0800604229607251</v>
+        <v>22</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <f aca="false">(I9/M9)*100</f>
+        <v>68.75</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <f aca="false">(I9/E9)*100</f>
+        <v>2.33050847457627</v>
       </c>
       <c r="L9" s="18"/>
-    </row>
-    <row r="10" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="27" t="n">
+      <c r="M9" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="28" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="D10" s="28" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="E10" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27" t="n">
+      <c r="C10" s="26" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="29" t="n">
-        <f aca="false">F10/85*100</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27" t="n">
+        <f aca="false">(F10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="e">
+        <f aca="false">(F10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="29" t="n">
-        <f aca="false">I10/85*100</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">(I10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29" t="e">
+        <f aca="false">(I10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="31" t="n">
-        <v>1.68</v>
+      <c r="C11" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>76.59</v>
       </c>
       <c r="E11" s="18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <f aca="false">(F11/M11)*100</f>
+        <v>9.375</v>
+      </c>
+      <c r="H11" s="28" t="n">
+        <f aca="false">(F11/E11)*100</f>
+        <v>6.52173913043478</v>
       </c>
       <c r="I11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20" t="n">
-        <f aca="false">I11/85*100</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="20" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J11" s="28" t="n">
+        <f aca="false">(I11/M11)*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="K11" s="28" t="n">
+        <f aca="false">(I11/E11)*100</f>
+        <v>8.69565217391304</v>
       </c>
       <c r="L11" s="18"/>
-    </row>
-    <row r="12" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="27" t="n">
+      <c r="M11" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C12" s="28" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="D12" s="28" t="n">
+      <c r="C12" s="26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D12" s="26" t="n">
         <v>99.69</v>
       </c>
-      <c r="E12" s="27" t="n">
-        <v>522</v>
-      </c>
-      <c r="F12" s="27" t="n">
-        <v>34</v>
+      <c r="E12" s="3" t="n">
+        <v>910</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="G12" s="29" t="n">
-        <f aca="false">F12/85*100</f>
-        <v>40</v>
+        <f aca="false">(F12/M12)*100</f>
+        <v>21.875</v>
       </c>
       <c r="H12" s="29" t="n">
-        <f aca="false">F12/E12</f>
-        <v>0.0651340996168582</v>
-      </c>
-      <c r="I12" s="27" t="n">
-        <v>48</v>
+        <f aca="false">(F12/E12)*100</f>
+        <v>0.769230769230769</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>17</v>
       </c>
       <c r="J12" s="29" t="n">
-        <f aca="false">I12/85*100</f>
-        <v>56.4705882352941</v>
+        <f aca="false">(I12/M12)*100</f>
+        <v>53.125</v>
       </c>
       <c r="K12" s="29" t="n">
-        <f aca="false">I12/E12</f>
-        <v>0.0919540229885057</v>
-      </c>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">(I12/E12)*100</f>
+        <v>1.86813186813187</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="31" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="D13" s="31" t="n">
-        <v>93.668</v>
+      <c r="C13" s="27" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>93.67</v>
       </c>
       <c r="E13" s="18" t="n">
-        <v>286</v>
+        <v>827</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" s="20" t="n">
-        <f aca="false">F13/85*100</f>
-        <v>11.7647058823529</v>
-      </c>
-      <c r="H13" s="20" t="n">
-        <f aca="false">F13/E13</f>
-        <v>0.034965034965035</v>
+        <v>7</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <f aca="false">(F13/M13)*100</f>
+        <v>21.875</v>
+      </c>
+      <c r="H13" s="28" t="n">
+        <f aca="false">(F13/E13)*100</f>
+        <v>0.846432889963724</v>
       </c>
       <c r="I13" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" s="20" t="n">
-        <f aca="false">I13/85*100</f>
-        <v>25.8823529411765</v>
-      </c>
-      <c r="K13" s="20" t="n">
-        <f aca="false">I13/E13</f>
-        <v>0.0769230769230769</v>
+        <v>16</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <f aca="false">(I13/M13)*100</f>
+        <v>50</v>
+      </c>
+      <c r="K13" s="28" t="n">
+        <f aca="false">(I13/E13)*100</f>
+        <v>1.93470374848851</v>
       </c>
       <c r="L13" s="18"/>
-    </row>
-    <row r="14" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="M13" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="27" t="n">
+      <c r="B14" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="28" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D14" s="28" t="n">
-        <v>91.98</v>
-      </c>
-      <c r="E14" s="27" t="n">
-        <v>252</v>
-      </c>
-      <c r="F14" s="27" t="n">
-        <v>11</v>
+      <c r="C14" s="26" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>99.98</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>290</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="G14" s="29" t="n">
-        <f aca="false">F14/85*100</f>
-        <v>12.9411764705882</v>
+        <f aca="false">(F14/M14)*100</f>
+        <v>3.125</v>
       </c>
       <c r="H14" s="29" t="n">
-        <f aca="false">F14/E14</f>
-        <v>0.0436507936507936</v>
-      </c>
-      <c r="I14" s="27" t="n">
-        <v>16</v>
+        <f aca="false">(F14/E14)*100</f>
+        <v>0.344827586206897</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="J14" s="29" t="n">
-        <f aca="false">I14/85*100</f>
-        <v>18.8235294117647</v>
+        <f aca="false">(I14/M14)*100</f>
+        <v>15.625</v>
       </c>
       <c r="K14" s="29" t="n">
-        <f aca="false">I14/E14</f>
-        <v>0.0634920634920635</v>
-      </c>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">(I14/E14)*100</f>
+        <v>1.72413793103448</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="31" t="n">
-        <v>8.72</v>
-      </c>
-      <c r="D15" s="31" t="n">
+      <c r="C15" s="27" t="n">
+        <v>63.54</v>
+      </c>
+      <c r="D15" s="27" t="n">
         <v>99.58</v>
       </c>
       <c r="E15" s="18" t="n">
-        <v>5525</v>
+        <v>5789</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>91</v>
-      </c>
-      <c r="G15" s="20" t="n">
-        <f aca="false">F15/85*100</f>
-        <v>107.058823529412</v>
-      </c>
-      <c r="H15" s="20" t="n">
-        <f aca="false">F15/E15</f>
-        <v>0.0164705882352941</v>
+        <v>50</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <f aca="false">(F15/M15)*100</f>
+        <v>156.25</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <f aca="false">(F15/E15)*100</f>
+        <v>0.863707030575229</v>
       </c>
       <c r="I15" s="18" t="n">
-        <v>141</v>
-      </c>
-      <c r="J15" s="20" t="n">
-        <f aca="false">I15/85*100</f>
-        <v>165.882352941177</v>
-      </c>
-      <c r="K15" s="20" t="n">
-        <f aca="false">I15/E15</f>
-        <v>0.0255203619909502</v>
+        <v>63</v>
+      </c>
+      <c r="J15" s="28" t="n">
+        <f aca="false">(I15/M15)*100</f>
+        <v>196.875</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <f aca="false">(I15/E15)*100</f>
+        <v>1.08827085852479</v>
       </c>
       <c r="L15" s="18"/>
-    </row>
-    <row r="16" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="27" t="n">
+      <c r="M15" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C16" s="28" t="n">
+      <c r="C16" s="26" t="n">
         <v>0.76</v>
       </c>
-      <c r="D16" s="28" t="n">
-        <v>92.75</v>
-      </c>
-      <c r="E16" s="27" t="n">
-        <v>110</v>
-      </c>
-      <c r="F16" s="27" t="n">
-        <v>10</v>
+      <c r="D16" s="26" t="n">
+        <v>94.83</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="G16" s="29" t="n">
-        <f aca="false">F16/85*100</f>
-        <v>11.7647058823529</v>
+        <f aca="false">(F16/M16)*100</f>
+        <v>3.125</v>
       </c>
       <c r="H16" s="29" t="n">
-        <f aca="false">F16/E16</f>
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="I16" s="27" t="n">
-        <v>17</v>
+        <f aca="false">(F16/E16)*100</f>
+        <v>0.980392156862745</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J16" s="29" t="n">
-        <f aca="false">I16/85*100</f>
-        <v>20</v>
+        <f aca="false">(I16/M16)*100</f>
+        <v>3.125</v>
       </c>
       <c r="K16" s="29" t="n">
-        <f aca="false">I16/E16</f>
-        <v>0.154545454545455</v>
-      </c>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">(I16/E16)*100</f>
+        <v>0.980392156862745</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="31" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D17" s="31" t="n">
-        <v>1.63</v>
+      <c r="C17" s="27" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>1.3</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0</v>
@@ -5467,77 +9045,85 @@
       <c r="F17" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="20" t="n">
-        <f aca="false">F17/85*100</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="20" t="n">
-        <v>0</v>
+      <c r="G17" s="28" t="n">
+        <f aca="false">(F17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="e">
+        <f aca="false">(F17/E17)*100</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="I17" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="20" t="n">
-        <f aca="false">I17/85*100</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="20" t="n">
-        <v>0</v>
+      <c r="J17" s="28" t="n">
+        <f aca="false">(I17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="e">
+        <f aca="false">(I17/E17)*100</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L17" s="18"/>
-    </row>
-    <row r="18" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="27" t="n">
+      <c r="M17" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="28" t="n">
+      <c r="C18" s="26" t="n">
         <v>0.03</v>
       </c>
-      <c r="D18" s="28" t="n">
+      <c r="D18" s="26" t="n">
         <v>98.29</v>
       </c>
-      <c r="E18" s="27" t="n">
-        <v>89</v>
-      </c>
-      <c r="F18" s="27" t="n">
-        <v>2</v>
+      <c r="E18" s="3" t="n">
+        <v>916</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>11</v>
       </c>
       <c r="G18" s="29" t="n">
-        <f aca="false">F18/85*100</f>
-        <v>2.35294117647059</v>
+        <f aca="false">(F18/M18)*100</f>
+        <v>34.375</v>
       </c>
       <c r="H18" s="29" t="n">
-        <f aca="false">F18/E18</f>
-        <v>0.0224719101123595</v>
-      </c>
-      <c r="I18" s="27" t="n">
-        <v>2</v>
+        <f aca="false">(F18/E18)*100</f>
+        <v>1.20087336244541</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>21</v>
       </c>
       <c r="J18" s="29" t="n">
-        <f aca="false">I18/85*100</f>
-        <v>2.35294117647059</v>
+        <f aca="false">(I18/M18)*100</f>
+        <v>65.625</v>
       </c>
       <c r="K18" s="29" t="n">
-        <f aca="false">I18/E18</f>
-        <v>0.0224719101123595</v>
-      </c>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">(I18/E18)*100</f>
+        <v>2.29257641921397</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="31" t="n">
+      <c r="C19" s="27" t="n">
         <v>0.69</v>
       </c>
-      <c r="D19" s="31" t="n">
-        <v>0.697</v>
+      <c r="D19" s="27" t="n">
+        <v>1.32</v>
       </c>
       <c r="E19" s="18" t="n">
         <v>0</v>
@@ -5545,49 +9131,4410 @@
       <c r="F19" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="20" t="n">
-        <f aca="false">F19/85</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="20" t="n">
-        <v>0</v>
+      <c r="G19" s="28" t="n">
+        <f aca="false">(F19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="e">
+        <f aca="false">(F19/E19)*100</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="I19" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="20" t="n">
-        <f aca="false">I19/85*100</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="20" t="n">
-        <v>0</v>
+      <c r="J19" s="28" t="n">
+        <f aca="false">(I19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="28" t="e">
+        <f aca="false">(I19/E19)*100</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L19" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="M19" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="12.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D2" s="26" t="n">
+        <v>97.84</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>765</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <f aca="false">(F2/M2)*100</f>
+        <v>102.777777777778</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <f aca="false">(F2/E2)*100</f>
+        <v>4.83660130718954</v>
+      </c>
+      <c r="I2" s="30" t="n">
+        <v>29</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">(I2/M2)*100</f>
+        <v>80.5555555555556</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <f aca="false">(I2/E2)*100</f>
+        <v>3.79084967320261</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>99.58</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>767</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <f aca="false">(F3/M3)*100</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <f aca="false">(F3/E3)*100</f>
+        <v>3.91134289439374</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J3" s="28" t="n">
+        <f aca="false">(I3/M3)*100</f>
+        <v>58.3333333333333</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <f aca="false">(I3/E3)*100</f>
+        <v>2.73794002607562</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>98.18</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>2103</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <f aca="false">(F4/M4)*100</f>
+        <v>116.666666666667</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <f aca="false">(F4/E4)*100</f>
+        <v>1.99714693295292</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <f aca="false">(I4/M4)*100</f>
+        <v>94.4444444444444</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <f aca="false">(I4/E4)*100</f>
+        <v>1.61673799334284</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>99.86</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>519</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <f aca="false">(F5/M5)*100</f>
+        <v>63.8888888888889</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <f aca="false">(F5/E5)*100</f>
+        <v>4.43159922928709</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <f aca="false">(I5/M5)*100</f>
+        <v>52.7777777777778</v>
+      </c>
+      <c r="K5" s="28" t="n">
+        <f aca="false">(I5/E5)*100</f>
+        <v>3.66088631984586</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>2952</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <f aca="false">(F6/M6)*100</f>
+        <v>133.333333333333</v>
+      </c>
+      <c r="H6" s="29" t="n">
+        <f aca="false">(F6/E6)*100</f>
+        <v>1.6260162601626</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <f aca="false">(I6/M6)*100</f>
+        <v>130.555555555556</v>
+      </c>
+      <c r="K6" s="29" t="n">
+        <f aca="false">(I6/E6)*100</f>
+        <v>1.59214092140921</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>29</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <f aca="false">(F7/M7)*100</f>
+        <v>80.5555555555556</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <f aca="false">(F7/E7)*100</f>
+        <v>2.29067930489731</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" s="28" t="n">
+        <f aca="false">(I7/M7)*100</f>
+        <v>66.6666666666667</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <f aca="false">(I7/E7)*100</f>
+        <v>1.8957345971564</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>87.85</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>449</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <f aca="false">(F8/M8)*100</f>
+        <v>38.8888888888889</v>
+      </c>
+      <c r="H8" s="29" t="n">
+        <f aca="false">(F8/E8)*100</f>
+        <v>3.11804008908686</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" s="29" t="n">
+        <f aca="false">(I8/M8)*100</f>
+        <v>30.5555555555556</v>
+      </c>
+      <c r="K8" s="29" t="n">
+        <f aca="false">(I8/E8)*100</f>
+        <v>2.44988864142539</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>99.84</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>2952</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>48</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <f aca="false">(F9/M9)*100</f>
+        <v>133.333333333333</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <f aca="false">(F9/E9)*100</f>
+        <v>1.6260162601626</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>47</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <f aca="false">(I9/M9)*100</f>
+        <v>130.555555555556</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <f aca="false">(I9/E9)*100</f>
+        <v>1.59214092140921</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>94.37</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>642</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <f aca="false">(F10/M10)*100</f>
+        <v>41.6666666666667</v>
+      </c>
+      <c r="H10" s="29" t="n">
+        <f aca="false">(F10/E10)*100</f>
+        <v>2.33644859813084</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <f aca="false">(I10/M10)*100</f>
+        <v>38.8888888888889</v>
+      </c>
+      <c r="K10" s="29" t="n">
+        <f aca="false">(I10/E10)*100</f>
+        <v>2.18068535825545</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>90.67</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>115</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <f aca="false">(F11/M11)*100</f>
+        <v>22.2222222222222</v>
+      </c>
+      <c r="H11" s="28" t="n">
+        <f aca="false">(F11/E11)*100</f>
+        <v>6.95652173913043</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="28" t="n">
+        <f aca="false">(I11/M11)*100</f>
+        <v>11.1111111111111</v>
+      </c>
+      <c r="K11" s="28" t="n">
+        <f aca="false">(I11/E11)*100</f>
+        <v>3.47826086956522</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>2952</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="G12" s="29" t="n">
+        <f aca="false">(F12/M12)*100</f>
+        <v>133.333333333333</v>
+      </c>
+      <c r="H12" s="29" t="n">
+        <f aca="false">(F12/E12)*100</f>
+        <v>1.6260162601626</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="J12" s="29" t="n">
+        <f aca="false">(I12/M12)*100</f>
+        <v>130.555555555556</v>
+      </c>
+      <c r="K12" s="29" t="n">
+        <f aca="false">(I12/E12)*100</f>
+        <v>1.59214092140921</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>93.69</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>2943</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>48</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <f aca="false">(F13/M13)*100</f>
+        <v>133.333333333333</v>
+      </c>
+      <c r="H13" s="28" t="n">
+        <f aca="false">(F13/E13)*100</f>
+        <v>1.63098878695209</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>47</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <f aca="false">(I13/M13)*100</f>
+        <v>130.555555555556</v>
+      </c>
+      <c r="K13" s="28" t="n">
+        <f aca="false">(I13/E13)*100</f>
+        <v>1.59700985389059</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>99.98</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>233</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <f aca="false">(F14/M14)*100</f>
+        <v>52.7777777777778</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <f aca="false">(F14/E14)*100</f>
+        <v>8.15450643776824</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J14" s="29" t="n">
+        <f aca="false">(I14/M14)*100</f>
+        <v>38.8888888888889</v>
+      </c>
+      <c r="K14" s="29" t="n">
+        <f aca="false">(I14/E14)*100</f>
+        <v>6.00858369098712</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="D15" s="27" t="n">
+        <v>99.58</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>5775</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>81</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <f aca="false">(F15/M15)*100</f>
+        <v>225</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <f aca="false">(F15/E15)*100</f>
+        <v>1.4025974025974</v>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J15" s="28" t="n">
+        <f aca="false">(I15/M15)*100</f>
+        <v>211.111111111111</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <f aca="false">(I15/E15)*100</f>
+        <v>1.31601731601732</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>99.31</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>581</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G16" s="29" t="n">
+        <f aca="false">(F16/M16)*100</f>
+        <v>50</v>
+      </c>
+      <c r="H16" s="29" t="n">
+        <f aca="false">(F16/E16)*100</f>
+        <v>3.09810671256454</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" s="29" t="n">
+        <f aca="false">(I16/M16)*100</f>
+        <v>47.2222222222222</v>
+      </c>
+      <c r="K16" s="29" t="n">
+        <f aca="false">(I16/E16)*100</f>
+        <v>2.92598967297762</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>466</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="G17" s="28" t="n">
+        <f aca="false">(F17/M17)*100</f>
+        <v>38.8888888888889</v>
+      </c>
+      <c r="H17" s="28" t="n">
+        <f aca="false">(F17/E17)*100</f>
+        <v>3.00429184549356</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" s="28" t="n">
+        <f aca="false">(I17/M17)*100</f>
+        <v>30.5555555555556</v>
+      </c>
+      <c r="K17" s="28" t="n">
+        <f aca="false">(I17/E17)*100</f>
+        <v>2.36051502145923</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>98.29</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>2327</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <f aca="false">(F18/M18)*100</f>
+        <v>97.2222222222222</v>
+      </c>
+      <c r="H18" s="29" t="n">
+        <f aca="false">(F18/E18)*100</f>
+        <v>1.5040825096691</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" s="29" t="n">
+        <f aca="false">(I18/M18)*100</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K18" s="29" t="n">
+        <f aca="false">(I18/E18)*100</f>
+        <v>1.28921357971637</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
         <v>79</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D19" s="27" t="n">
+        <v>99.84</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>487</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" s="28" t="n">
+        <f aca="false">(F19/M19)*100</f>
+        <v>38.8888888888889</v>
+      </c>
+      <c r="H19" s="28" t="n">
+        <f aca="false">(F19/E19)*100</f>
+        <v>2.87474332648871</v>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" s="28" t="n">
+        <f aca="false">(I19/M19)*100</f>
+        <v>30.5555555555556</v>
+      </c>
+      <c r="K19" s="28" t="n">
+        <f aca="false">(I19/E19)*100</f>
+        <v>2.25872689938398</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="B24" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="12.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D2" s="26" t="n">
+        <v>97.84</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>388</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <f aca="false">(F2/M2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <f aca="false">(F2/E2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">(I2/M2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <f aca="false">(I2/E2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>99.35</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>457</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <f aca="false">(F3/M3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <f aca="false">(F3/E3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28" t="n">
+        <f aca="false">(I3/M3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <f aca="false">(I3/E3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>97.21</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <f aca="false">(F4/M4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <f aca="false">(F4/E4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <f aca="false">(I4/M4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <f aca="false">(I4/E4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>99.91</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>105</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <f aca="false">(F5/M5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <f aca="false">(F5/E5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <f aca="false">(I5/M5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="28" t="n">
+        <f aca="false">(I5/E5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="26" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <f aca="false">(F6/M6)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="29" t="e">
+        <f aca="false">(F6/E6)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <f aca="false">(I6/M6)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="29" t="e">
+        <f aca="false">(I6/E6)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>99.55</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <f aca="false">(F7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <f aca="false">(F7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28" t="n">
+        <f aca="false">(I7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <f aca="false">(I7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <f aca="false">(F8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="e">
+        <f aca="false">(F8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29" t="n">
+        <f aca="false">(I8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="29" t="e">
+        <f aca="false">(I8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <f aca="false">(F9/M9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="28" t="e">
+        <f aca="false">(F9/E9)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <f aca="false">(I9/M9)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="e">
+        <f aca="false">(I9/E9)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <f aca="false">(F10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="e">
+        <f aca="false">(F10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <f aca="false">(I10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29" t="e">
+        <f aca="false">(I10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <f aca="false">(F11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="e">
+        <f aca="false">(F11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="n">
+        <f aca="false">(I11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28" t="e">
+        <f aca="false">(I11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29" t="n">
+        <f aca="false">(F12/M12)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="e">
+        <f aca="false">(F12/E12)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29" t="n">
+        <f aca="false">(I12/M12)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="29" t="e">
+        <f aca="false">(I12/E12)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <f aca="false">(F13/M13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="28" t="e">
+        <f aca="false">(F13/E13)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <f aca="false">(I13/M13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="28" t="e">
+        <f aca="false">(I13/E13)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>91.97</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>249</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <f aca="false">(F14/M14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <f aca="false">(F14/E14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29" t="n">
+        <f aca="false">(I14/M14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="29" t="n">
+        <f aca="false">(I14/E14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>57</v>
+      </c>
+      <c r="D15" s="27" t="n">
+        <v>99.54</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>5789</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <f aca="false">(F15/M15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <f aca="false">(F15/E15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28" t="n">
+        <f aca="false">(I15/M15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <f aca="false">(I15/E15)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>94.52</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>187</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29" t="n">
+        <f aca="false">(F16/M16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="n">
+        <f aca="false">(F16/E16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29" t="n">
+        <f aca="false">(I16/M16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="29" t="n">
+        <f aca="false">(I16/E16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="n">
+        <f aca="false">(F17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="e">
+        <f aca="false">(F17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="n">
+        <f aca="false">(I17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="e">
+        <f aca="false">(I17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <f aca="false">(F18/M18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="e">
+        <f aca="false">(F18/E18)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29" t="n">
+        <f aca="false">(I18/M18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="29" t="e">
+        <f aca="false">(I18/E18)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D19" s="27" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28" t="n">
+        <f aca="false">(F19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="e">
+        <f aca="false">(F19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28" t="n">
+        <f aca="false">(I19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="28" t="e">
+        <f aca="false">(I19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="12.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D2" s="26" t="n">
+        <v>97.84</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>361</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <f aca="false">(F2/M2)*100</f>
+        <v>10.5882352941176</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <f aca="false">(F2/E2)*100</f>
+        <v>2.49307479224377</v>
+      </c>
+      <c r="I2" s="30" t="n">
+        <v>23</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">(I2/M2)*100</f>
+        <v>27.0588235294118</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <f aca="false">(I2/E2)*100</f>
+        <v>6.37119113573407</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>416</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <f aca="false">(F3/M3)*100</f>
+        <v>10.5882352941176</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <f aca="false">(F3/E3)*100</f>
+        <v>2.16346153846154</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J3" s="28" t="n">
+        <f aca="false">(I3/M3)*100</f>
+        <v>32.9411764705882</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <f aca="false">(I3/E3)*100</f>
+        <v>6.73076923076923</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>97.57</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <f aca="false">(F4/M4)*100</f>
+        <v>5.88235294117647</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <f aca="false">(F4/E4)*100</f>
+        <v>15.625</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <f aca="false">(I4/M4)*100</f>
+        <v>7.05882352941176</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <f aca="false">(I4/E4)*100</f>
+        <v>18.75</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>99.87</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>77</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <f aca="false">(F5/M5)*100</f>
+        <v>5.88235294117647</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <f aca="false">(F5/E5)*100</f>
+        <v>6.49350649350649</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <f aca="false">(I5/M5)*100</f>
+        <v>11.7647058823529</v>
+      </c>
+      <c r="K5" s="28" t="n">
+        <f aca="false">(I5/E5)*100</f>
+        <v>12.987012987013</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="D6" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>506</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <f aca="false">(F6/M6)*100</f>
+        <v>42.3529411764706</v>
+      </c>
+      <c r="H6" s="29" t="n">
+        <f aca="false">(F6/E6)*100</f>
+        <v>7.11462450592885</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <f aca="false">(I6/M6)*100</f>
+        <v>56.4705882352941</v>
+      </c>
+      <c r="K6" s="29" t="n">
+        <f aca="false">(I6/E6)*100</f>
+        <v>9.48616600790514</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>99.07</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <f aca="false">(F7/M7)*100</f>
+        <v>2.35294117647059</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <f aca="false">(F7/E7)*100</f>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="28" t="n">
+        <f aca="false">(I7/M7)*100</f>
+        <v>2.35294117647059</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <f aca="false">(I7/E7)*100</f>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>34.97</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <f aca="false">(F8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="e">
+        <f aca="false">(F8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29" t="n">
+        <f aca="false">(I8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="29" t="e">
+        <f aca="false">(I8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>99.84</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>662</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>35</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <f aca="false">(F9/M9)*100</f>
+        <v>41.1764705882353</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <f aca="false">(F9/E9)*100</f>
+        <v>5.28700906344411</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>53</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <f aca="false">(I9/M9)*100</f>
+        <v>62.3529411764706</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <f aca="false">(I9/E9)*100</f>
+        <v>8.00604229607251</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <f aca="false">(F10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="e">
+        <f aca="false">(F10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <f aca="false">(I10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29" t="e">
+        <f aca="false">(I10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <f aca="false">(F11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="e">
+        <f aca="false">(F11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="n">
+        <f aca="false">(I11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28" t="e">
+        <f aca="false">(I11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>522</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G12" s="29" t="n">
+        <f aca="false">(F12/M12)*100</f>
+        <v>40</v>
+      </c>
+      <c r="H12" s="29" t="n">
+        <f aca="false">(F12/E12)*100</f>
+        <v>6.51340996168582</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="J12" s="29" t="n">
+        <f aca="false">(I12/M12)*100</f>
+        <v>56.4705882352941</v>
+      </c>
+      <c r="K12" s="29" t="n">
+        <f aca="false">(I12/E12)*100</f>
+        <v>9.19540229885057</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>93.668</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>286</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <f aca="false">(F13/M13)*100</f>
+        <v>11.7647058823529</v>
+      </c>
+      <c r="H13" s="28" t="n">
+        <f aca="false">(F13/E13)*100</f>
+        <v>3.4965034965035</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <f aca="false">(I13/M13)*100</f>
+        <v>25.8823529411765</v>
+      </c>
+      <c r="K13" s="28" t="n">
+        <f aca="false">(I13/E13)*100</f>
+        <v>7.69230769230769</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>91.98</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>252</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <f aca="false">(F14/M14)*100</f>
+        <v>12.9411764705882</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <f aca="false">(F14/E14)*100</f>
+        <v>4.36507936507936</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" s="29" t="n">
+        <f aca="false">(I14/M14)*100</f>
+        <v>18.8235294117647</v>
+      </c>
+      <c r="K14" s="29" t="n">
+        <f aca="false">(I14/E14)*100</f>
+        <v>6.34920634920635</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>8.72</v>
+      </c>
+      <c r="D15" s="27" t="n">
+        <v>99.58</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>5525</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>91</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <f aca="false">(F15/M15)*100</f>
+        <v>107.058823529412</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <f aca="false">(F15/E15)*100</f>
+        <v>1.64705882352941</v>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>141</v>
+      </c>
+      <c r="J15" s="28" t="n">
+        <f aca="false">(I15/M15)*100</f>
+        <v>165.882352941177</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <f aca="false">(I15/E15)*100</f>
+        <v>2.55203619909502</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>92.75</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="29" t="n">
+        <f aca="false">(F16/M16)*100</f>
+        <v>11.7647058823529</v>
+      </c>
+      <c r="H16" s="29" t="n">
+        <f aca="false">(F16/E16)*100</f>
+        <v>9.09090909090909</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" s="29" t="n">
+        <f aca="false">(I16/M16)*100</f>
+        <v>20</v>
+      </c>
+      <c r="K16" s="29" t="n">
+        <f aca="false">(I16/E16)*100</f>
+        <v>15.4545454545455</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="n">
+        <f aca="false">(F17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="e">
+        <f aca="false">(F17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="n">
+        <f aca="false">(I17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="e">
+        <f aca="false">(I17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>98.29</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <f aca="false">(F18/M18)*100</f>
+        <v>2.35294117647059</v>
+      </c>
+      <c r="H18" s="29" t="n">
+        <f aca="false">(F18/E18)*100</f>
+        <v>2.24719101123596</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="n">
+        <f aca="false">(I18/M18)*100</f>
+        <v>2.35294117647059</v>
+      </c>
+      <c r="K18" s="29" t="n">
+        <f aca="false">(I18/E18)*100</f>
+        <v>2.24719101123596</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D19" s="27" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28" t="n">
+        <f aca="false">(F19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="e">
+        <f aca="false">(F19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28" t="n">
+        <f aca="false">(I19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="28" t="e">
+        <f aca="false">(I19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="H24" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>84</v>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="12.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D2" s="26" t="n">
+        <v>97.84</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>157</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <f aca="false">(F2/M2)*100</f>
+        <v>13.1147540983607</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <f aca="false">(F2/E2)*100</f>
+        <v>5.09554140127389</v>
+      </c>
+      <c r="I2" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">(I2/M2)*100</f>
+        <v>9.83606557377049</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <f aca="false">(I2/E2)*100</f>
+        <v>3.82165605095541</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>99.25</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>219</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <f aca="false">(F3/M3)*100</f>
+        <v>16.3934426229508</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <f aca="false">(F3/E3)*100</f>
+        <v>4.5662100456621</v>
+      </c>
+      <c r="I3" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="28" t="n">
+        <f aca="false">(I3/M3)*100</f>
+        <v>16.3934426229508</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <f aca="false">(I3/E3)*100</f>
+        <v>4.5662100456621</v>
+      </c>
+      <c r="L3" s="34"/>
+      <c r="M3" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <f aca="false">(F4/M4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <f aca="false">(F4/E4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <f aca="false">(I4/M4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <f aca="false">(I4/E4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>99.85</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <f aca="false">(F5/M5)*100</f>
+        <v>13.1147540983607</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <f aca="false">(F5/E5)*100</f>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="I5" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <f aca="false">(I5/M5)*100</f>
+        <v>14.7540983606557</v>
+      </c>
+      <c r="K5" s="28" t="n">
+        <f aca="false">(I5/E5)*100</f>
+        <v>15</v>
+      </c>
+      <c r="L5" s="34"/>
+      <c r="M5" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1611</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <f aca="false">(F6/M6)*100</f>
+        <v>80.327868852459</v>
+      </c>
+      <c r="H6" s="29" t="n">
+        <f aca="false">(F6/E6)*100</f>
+        <v>3.04158907510863</v>
+      </c>
+      <c r="I6" s="30" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <f aca="false">(I6/M6)*100</f>
+        <v>81.9672131147541</v>
+      </c>
+      <c r="K6" s="29" t="n">
+        <f aca="false">(I6/E6)*100</f>
+        <v>3.10366232153942</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>99.14</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <f aca="false">(F7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <f aca="false">(F7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="28" t="n">
+        <f aca="false">(I7/M7)*100</f>
+        <v>3.27868852459016</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <f aca="false">(I7/E7)*100</f>
+        <v>40</v>
+      </c>
+      <c r="L7" s="34"/>
+      <c r="M7" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>34.97</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <f aca="false">(F8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="e">
+        <f aca="false">(F8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29" t="n">
+        <f aca="false">(I8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="29" t="e">
+        <f aca="false">(I8/E8)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="33"/>
+      <c r="M8" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>99.84</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>56</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <f aca="false">(F9/M9)*100</f>
+        <v>91.8032786885246</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <f aca="false">(F9/E9)*100</f>
+        <v>3.09050772626932</v>
+      </c>
+      <c r="I9" s="31" t="n">
+        <v>56</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <f aca="false">(I9/M9)*100</f>
+        <v>91.8032786885246</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <f aca="false">(I9/E9)*100</f>
+        <v>3.09050772626932</v>
+      </c>
+      <c r="L9" s="34"/>
+      <c r="M9" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <f aca="false">(F10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="e">
+        <f aca="false">(F10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <f aca="false">(I10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29" t="e">
+        <f aca="false">(I10/E10)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <f aca="false">(F11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="e">
+        <f aca="false">(F11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="n">
+        <f aca="false">(I11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28" t="e">
+        <f aca="false">(I11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="34"/>
+      <c r="M11" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1654</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="G12" s="29" t="n">
+        <f aca="false">(F12/M12)*100</f>
+        <v>80.327868852459</v>
+      </c>
+      <c r="H12" s="29" t="n">
+        <f aca="false">(F12/E12)*100</f>
+        <v>2.96251511487303</v>
+      </c>
+      <c r="I12" s="30" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" s="29" t="n">
+        <f aca="false">(I12/M12)*100</f>
+        <v>81.9672131147541</v>
+      </c>
+      <c r="K12" s="29" t="n">
+        <f aca="false">(I12/E12)*100</f>
+        <v>3.0229746070133</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>93.67</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>829</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <f aca="false">(F13/M13)*100</f>
+        <v>37.7049180327869</v>
+      </c>
+      <c r="H13" s="28" t="n">
+        <f aca="false">(F13/E13)*100</f>
+        <v>2.77442702050663</v>
+      </c>
+      <c r="I13" s="31" t="n">
+        <v>35</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <f aca="false">(I13/M13)*100</f>
+        <v>57.3770491803279</v>
+      </c>
+      <c r="K13" s="28" t="n">
+        <f aca="false">(I13/E13)*100</f>
+        <v>4.22195416164053</v>
+      </c>
+      <c r="L13" s="34"/>
+      <c r="M13" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>99.98</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>291</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <f aca="false">(F14/M14)*100</f>
+        <v>44.2622950819672</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <f aca="false">(F14/E14)*100</f>
+        <v>9.27835051546392</v>
+      </c>
+      <c r="I14" s="30" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" s="29" t="n">
+        <f aca="false">(I14/M14)*100</f>
+        <v>47.5409836065574</v>
+      </c>
+      <c r="K14" s="29" t="n">
+        <f aca="false">(I14/E14)*100</f>
+        <v>9.96563573883162</v>
+      </c>
+      <c r="L14" s="33"/>
+      <c r="M14" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D15" s="27" t="n">
+        <v>99.57</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>4974</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>126</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <f aca="false">(F15/M15)*100</f>
+        <v>206.55737704918</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <f aca="false">(F15/E15)*100</f>
+        <v>2.53317249698432</v>
+      </c>
+      <c r="I15" s="31" t="n">
+        <v>108</v>
+      </c>
+      <c r="J15" s="28" t="n">
+        <f aca="false">(I15/M15)*100</f>
+        <v>177.049180327869</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <f aca="false">(I15/E15)*100</f>
+        <v>2.17129071170084</v>
+      </c>
+      <c r="L15" s="34"/>
+      <c r="M15" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>86.95</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29" t="n">
+        <f aca="false">(F16/M16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="n">
+        <f aca="false">(F16/E16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29" t="n">
+        <f aca="false">(I16/M16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="29" t="n">
+        <f aca="false">(I16/E16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="n">
+        <f aca="false">(F17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="e">
+        <f aca="false">(F17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="n">
+        <f aca="false">(I17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="e">
+        <f aca="false">(I17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>98.29</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>383</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <f aca="false">(F18/M18)*100</f>
+        <v>14.7540983606557</v>
+      </c>
+      <c r="H18" s="29" t="n">
+        <f aca="false">(F18/E18)*100</f>
+        <v>2.34986945169713</v>
+      </c>
+      <c r="I18" s="30" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" s="29" t="n">
+        <f aca="false">(I18/M18)*100</f>
+        <v>21.3114754098361</v>
+      </c>
+      <c r="K18" s="29" t="n">
+        <f aca="false">(I18/E18)*100</f>
+        <v>3.39425587467363</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D19" s="27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28" t="n">
+        <f aca="false">(F19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="e">
+        <f aca="false">(F19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28" t="n">
+        <f aca="false">(I19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="28" t="e">
+        <f aca="false">(I19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="23" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="23" width="12.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D2" s="26" t="n">
+        <v>97.84</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>413</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <f aca="false">(F2/M2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <f aca="false">(F2/E2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">(I2/M2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <f aca="false">(I2/E2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>251</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <f aca="false">(F3/M3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <f aca="false">(F3/E3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28" t="n">
+        <f aca="false">(I3/M3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <f aca="false">(I3/E3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>97.07</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <f aca="false">(F4/M4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <f aca="false">(F4/E4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <f aca="false">(I4/M4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <f aca="false">(I4/E4)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>99.56</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <f aca="false">(F5/M5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <f aca="false">(F5/E5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <f aca="false">(I5/M5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="28" t="n">
+        <f aca="false">(I5/E5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>870</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <f aca="false">(F6/M6)*100</f>
+        <v>5.71428571428571</v>
+      </c>
+      <c r="H6" s="29" t="n">
+        <f aca="false">(F6/E6)*100</f>
+        <v>0.689655172413793</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <f aca="false">(I6/M6)*100</f>
+        <v>5.71428571428571</v>
+      </c>
+      <c r="K6" s="29" t="n">
+        <f aca="false">(I6/E6)*100</f>
+        <v>0.689655172413793</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D7" s="27" t="n">
+        <v>99.98</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>39</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <f aca="false">(F7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <f aca="false">(F7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28" t="n">
+        <f aca="false">(I7/M7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <f aca="false">(I7/E7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>87.81</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <f aca="false">(F8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="n">
+        <f aca="false">(F8/E8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29" t="n">
+        <f aca="false">(I8/M8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="29" t="n">
+        <f aca="false">(I8/E8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>99.84</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>2123</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <f aca="false">(F9/M9)*100</f>
+        <v>5.71428571428571</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <f aca="false">(F9/E9)*100</f>
+        <v>0.282618935468676</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <f aca="false">(I9/M9)*100</f>
+        <v>5.71428571428571</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <f aca="false">(I9/E9)*100</f>
+        <v>0.282618935468676</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>94.34</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>664</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <f aca="false">(F10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="n">
+        <f aca="false">(F10/E10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <f aca="false">(I10/M10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29" t="n">
+        <f aca="false">(I10/E10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>33.61</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28" t="n">
+        <f aca="false">(F11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="e">
+        <f aca="false">(F11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28" t="n">
+        <f aca="false">(I11/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28" t="e">
+        <f aca="false">(I11/E11)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>904</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="29" t="n">
+        <f aca="false">(F12/M12)*100</f>
+        <v>5.71428571428571</v>
+      </c>
+      <c r="H12" s="29" t="n">
+        <f aca="false">(F12/E12)*100</f>
+        <v>0.663716814159292</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="29" t="n">
+        <f aca="false">(I12/M12)*100</f>
+        <v>5.71428571428571</v>
+      </c>
+      <c r="K12" s="29" t="n">
+        <f aca="false">(I12/E12)*100</f>
+        <v>0.663716814159292</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>93.67</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>595</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <f aca="false">(F13/M13)*100</f>
+        <v>5.71428571428571</v>
+      </c>
+      <c r="H13" s="28" t="n">
+        <f aca="false">(F13/E13)*100</f>
+        <v>1.00840336134454</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <f aca="false">(I13/M13)*100</f>
+        <v>5.71428571428571</v>
+      </c>
+      <c r="K13" s="28" t="n">
+        <f aca="false">(I13/E13)*100</f>
+        <v>1.00840336134454</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>92.11</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>159</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <f aca="false">(F14/M14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <f aca="false">(F14/E14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29" t="n">
+        <f aca="false">(I14/M14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="29" t="n">
+        <f aca="false">(I14/E14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D15" s="27" t="n">
+        <v>99.56</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>4067</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>52</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <f aca="false">(F15/M15)*100</f>
+        <v>49.5238095238095</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <f aca="false">(F15/E15)*100</f>
+        <v>1.27858372264568</v>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>68</v>
+      </c>
+      <c r="J15" s="28" t="n">
+        <f aca="false">(I15/M15)*100</f>
+        <v>64.7619047619048</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <f aca="false">(I15/E15)*100</f>
+        <v>1.67199409884436</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>95.61</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29" t="n">
+        <f aca="false">(F16/M16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="n">
+        <f aca="false">(F16/E16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29" t="n">
+        <f aca="false">(I16/M16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="29" t="n">
+        <f aca="false">(I16/E16)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28" t="n">
+        <f aca="false">(F17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="e">
+        <f aca="false">(F17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28" t="n">
+        <f aca="false">(I17/M17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28" t="e">
+        <f aca="false">(I17/E17)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>98.29</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <f aca="false">(F18/M18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="n">
+        <f aca="false">(F18/E18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29" t="n">
+        <f aca="false">(I18/M18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="29" t="n">
+        <f aca="false">(I18/E18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D19" s="27" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28" t="n">
+        <f aca="false">(F19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="e">
+        <f aca="false">(F19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28" t="n">
+        <f aca="false">(I19/M19)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="28" t="e">
+        <f aca="false">(I19/E19)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="23" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/Comparing_Model_Runs - With RatioTests.xlsx
+++ b/Excel & CSV Sheets/Comparing_Model_Runs - With RatioTests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Comparing Model Runs" sheetId="1" state="visible" r:id="rId2"/>
@@ -5224,7 +5224,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7450,7 +7450,7 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -10925,8 +10925,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
